--- a/Experiment 1/Trace Files/DroppedGraph.xlsx
+++ b/Experiment 1/Trace Files/DroppedGraph.xlsx
@@ -256,19 +256,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,19 +362,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,19 +468,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -571,22 +571,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1406073936"/>
-        <c:axId val="1406074480"/>
+        <c:axId val="1025540768"/>
+        <c:axId val="1025542400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1406073936"/>
+        <c:axId val="1025540768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406074480"/>
+        <c:crossAx val="1025542400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1406074480"/>
+        <c:axId val="1025542400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -822,7 +822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406073936"/>
+        <c:crossAx val="1025540768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,7 +1760,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1872,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1889,16 +1889,16 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1906,16 +1906,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1923,16 +1923,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1940,16 +1940,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 1/Trace Files/DroppedGraph.xlsx
+++ b/Experiment 1/Trace Files/DroppedGraph.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -602,11 +605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1025540768"/>
-        <c:axId val="1025542400"/>
+        <c:axId val="1977520384"/>
+        <c:axId val="121114160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1025540768"/>
+        <c:axId val="1977520384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025542400"/>
+        <c:crossAx val="121114160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1025542400"/>
+        <c:axId val="121114160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -822,7 +825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1025540768"/>
+        <c:crossAx val="1977520384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1470,9 +1473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>349624</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3842</xdr:rowOff>
+      <xdr:colOff>253574</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1492,6 +1495,204 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>NewReno</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Reno</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Tahoe</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Vegas</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2">
+            <v>65.378132476900007</v>
+          </cell>
+          <cell r="C2">
+            <v>65.378132476900007</v>
+          </cell>
+          <cell r="D2">
+            <v>65.378132476900007</v>
+          </cell>
+          <cell r="E2">
+            <v>65.1182454992</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3">
+            <v>65.377361702100004</v>
+          </cell>
+          <cell r="C3">
+            <v>65.377361702100004</v>
+          </cell>
+          <cell r="D3">
+            <v>65.377361702100004</v>
+          </cell>
+          <cell r="E3">
+            <v>65.327476268400005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>65.372012043400005</v>
+          </cell>
+          <cell r="C4">
+            <v>65.372012043400005</v>
+          </cell>
+          <cell r="D4">
+            <v>65.372012043400005</v>
+          </cell>
+          <cell r="E4">
+            <v>65.325792962400001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5">
+            <v>65.404364512200004</v>
+          </cell>
+          <cell r="C5">
+            <v>65.404364512200004</v>
+          </cell>
+          <cell r="D5">
+            <v>65.404364512200004</v>
+          </cell>
+          <cell r="E5">
+            <v>65.332595744700001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6">
+            <v>65.496138097100001</v>
+          </cell>
+          <cell r="C6">
+            <v>65.496138097100001</v>
+          </cell>
+          <cell r="D6">
+            <v>65.496138097100001</v>
+          </cell>
+          <cell r="E6">
+            <v>65.371566345800005</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7">
+            <v>65.550685905500004</v>
+          </cell>
+          <cell r="C7">
+            <v>65.566465765800004</v>
+          </cell>
+          <cell r="D7">
+            <v>65.514874312299995</v>
+          </cell>
+          <cell r="E7">
+            <v>65.5843394929</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8">
+            <v>65.892020270299994</v>
+          </cell>
+          <cell r="C8">
+            <v>65.981368373400002</v>
+          </cell>
+          <cell r="D8">
+            <v>65.921846743299994</v>
+          </cell>
+          <cell r="E8">
+            <v>66.0864955901</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9">
+            <v>72.517706666699993</v>
+          </cell>
+          <cell r="C9">
+            <v>71.078984474899997</v>
+          </cell>
+          <cell r="D9">
+            <v>72.7691390552</v>
+          </cell>
+          <cell r="E9">
+            <v>76.925689502200001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10">
+            <v>71.169846681899998</v>
+          </cell>
+          <cell r="C10">
+            <v>71.701067103100002</v>
+          </cell>
+          <cell r="D10">
+            <v>71.567791237099996</v>
+          </cell>
+          <cell r="E10">
+            <v>77.273437447500001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11">
+            <v>79.074042553200002</v>
+          </cell>
+          <cell r="C11">
+            <v>79.159333333299998</v>
+          </cell>
+          <cell r="D11">
+            <v>79.590141414100003</v>
+          </cell>
+          <cell r="E11">
+            <v>73.073777777800004</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Experiment 1/Trace Files/DroppedGraph.xlsx
+++ b/Experiment 1/Trace Files/DroppedGraph.xlsx
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -605,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1977520384"/>
-        <c:axId val="121114160"/>
+        <c:axId val="1715182848"/>
+        <c:axId val="1715183936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1977520384"/>
+        <c:axId val="1715182848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +633,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CBR</a:t>
+                  <a:t>CBR (Mbps)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -708,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121114160"/>
+        <c:crossAx val="1715183936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121114160"/>
+        <c:axId val="1715183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -825,7 +822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1977520384"/>
+        <c:crossAx val="1715182848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,10 +1469,10 @@
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>253574</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1495,204 +1492,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>NewReno</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Reno</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Tahoe</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Vegas</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>65.378132476900007</v>
-          </cell>
-          <cell r="C2">
-            <v>65.378132476900007</v>
-          </cell>
-          <cell r="D2">
-            <v>65.378132476900007</v>
-          </cell>
-          <cell r="E2">
-            <v>65.1182454992</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>65.377361702100004</v>
-          </cell>
-          <cell r="C3">
-            <v>65.377361702100004</v>
-          </cell>
-          <cell r="D3">
-            <v>65.377361702100004</v>
-          </cell>
-          <cell r="E3">
-            <v>65.327476268400005</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>65.372012043400005</v>
-          </cell>
-          <cell r="C4">
-            <v>65.372012043400005</v>
-          </cell>
-          <cell r="D4">
-            <v>65.372012043400005</v>
-          </cell>
-          <cell r="E4">
-            <v>65.325792962400001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>65.404364512200004</v>
-          </cell>
-          <cell r="C5">
-            <v>65.404364512200004</v>
-          </cell>
-          <cell r="D5">
-            <v>65.404364512200004</v>
-          </cell>
-          <cell r="E5">
-            <v>65.332595744700001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>65.496138097100001</v>
-          </cell>
-          <cell r="C6">
-            <v>65.496138097100001</v>
-          </cell>
-          <cell r="D6">
-            <v>65.496138097100001</v>
-          </cell>
-          <cell r="E6">
-            <v>65.371566345800005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>65.550685905500004</v>
-          </cell>
-          <cell r="C7">
-            <v>65.566465765800004</v>
-          </cell>
-          <cell r="D7">
-            <v>65.514874312299995</v>
-          </cell>
-          <cell r="E7">
-            <v>65.5843394929</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>65.892020270299994</v>
-          </cell>
-          <cell r="C8">
-            <v>65.981368373400002</v>
-          </cell>
-          <cell r="D8">
-            <v>65.921846743299994</v>
-          </cell>
-          <cell r="E8">
-            <v>66.0864955901</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>72.517706666699993</v>
-          </cell>
-          <cell r="C9">
-            <v>71.078984474899997</v>
-          </cell>
-          <cell r="D9">
-            <v>72.7691390552</v>
-          </cell>
-          <cell r="E9">
-            <v>76.925689502200001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>71.169846681899998</v>
-          </cell>
-          <cell r="C10">
-            <v>71.701067103100002</v>
-          </cell>
-          <cell r="D10">
-            <v>71.567791237099996</v>
-          </cell>
-          <cell r="E10">
-            <v>77.273437447500001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>79.074042553200002</v>
-          </cell>
-          <cell r="C11">
-            <v>79.159333333299998</v>
-          </cell>
-          <cell r="D11">
-            <v>79.590141414100003</v>
-          </cell>
-          <cell r="E11">
-            <v>73.073777777800004</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1961,7 +1760,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
